--- a/auswertung/ASTRA/ASTRA_test_FM.xlsx
+++ b/auswertung/ASTRA/ASTRA_test_FM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="44">
   <si>
     <t>model</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>als</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER ENGINE_TYPE_GROUP</t>
   </si>
 </sst>
 </file>
@@ -968,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,6 +4042,481 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1600</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33">
+        <v>983.841072083879</v>
+      </c>
+      <c r="S33">
+        <v>667.65</v>
+      </c>
+      <c r="T33">
+        <v>0.16251638269986901</v>
+      </c>
+      <c r="U33">
+        <v>0.242463958060288</v>
+      </c>
+      <c r="V33">
+        <v>0.31847968545216299</v>
+      </c>
+      <c r="W33">
+        <v>0.38837920489296601</v>
+      </c>
+      <c r="X33">
+        <v>0.37826592129247499</v>
+      </c>
+      <c r="Y33">
+        <v>0.24441632816141701</v>
+      </c>
+      <c r="Z33">
+        <v>0.23154215814766299</v>
+      </c>
+      <c r="AA33">
+        <v>0.41939711664482299</v>
+      </c>
+      <c r="AB33">
+        <v>0.58453473132372202</v>
+      </c>
+      <c r="AC33">
+        <v>0.68982088248143303</v>
+      </c>
+      <c r="AD33">
+        <v>0.77020532983835699</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>1600</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <v>966.489883792049</v>
+      </c>
+      <c r="S34">
+        <v>656.57</v>
+      </c>
+      <c r="T34">
+        <v>0.16906946264744399</v>
+      </c>
+      <c r="U34">
+        <v>0.24945391000436901</v>
+      </c>
+      <c r="V34">
+        <v>0.331585845347313</v>
+      </c>
+      <c r="W34">
+        <v>0.403669724770642</v>
+      </c>
+      <c r="X34">
+        <v>0.369399679476974</v>
+      </c>
+      <c r="Y34">
+        <v>0.23705637901991899</v>
+      </c>
+      <c r="Z34">
+        <v>0.23241590214067301</v>
+      </c>
+      <c r="AA34">
+        <v>0.427697684578419</v>
+      </c>
+      <c r="AB34">
+        <v>0.59021406727828796</v>
+      </c>
+      <c r="AC34">
+        <v>0.70423765836609897</v>
+      </c>
+      <c r="AD34">
+        <v>0.79292267365661895</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>1600</v>
+      </c>
+      <c r="E35">
+        <v>0.8</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35">
+        <v>1044.1654521625201</v>
+      </c>
+      <c r="S35">
+        <v>754.07000000000096</v>
+      </c>
+      <c r="T35">
+        <v>0.130187854958497</v>
+      </c>
+      <c r="U35">
+        <v>0.20008737439930099</v>
+      </c>
+      <c r="V35">
+        <v>0.26998689384010499</v>
+      </c>
+      <c r="W35">
+        <v>0.33595456531236301</v>
+      </c>
+      <c r="X35">
+        <v>0.40898416605503302</v>
+      </c>
+      <c r="Y35">
+        <v>0.27388532027882301</v>
+      </c>
+      <c r="Z35">
+        <v>0.18086500655307999</v>
+      </c>
+      <c r="AA35">
+        <v>0.37570991699432099</v>
+      </c>
+      <c r="AB35">
+        <v>0.5478374836173</v>
+      </c>
+      <c r="AC35">
+        <v>0.66535605067715198</v>
+      </c>
+      <c r="AD35">
+        <v>0.75360419397116596</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>1600</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>973.55437046745305</v>
+      </c>
+      <c r="S36">
+        <v>671.98</v>
+      </c>
+      <c r="T36">
+        <v>0.168632590650939</v>
+      </c>
+      <c r="U36">
+        <v>0.24421144604630801</v>
+      </c>
+      <c r="V36">
+        <v>0.31673219746614201</v>
+      </c>
+      <c r="W36">
+        <v>0.39012669287898599</v>
+      </c>
+      <c r="X36">
+        <v>0.37310784330633601</v>
+      </c>
+      <c r="Y36">
+        <v>0.24409959116292901</v>
+      </c>
+      <c r="Z36">
+        <v>0.22542595019659201</v>
+      </c>
+      <c r="AA36">
+        <v>0.42070773263433803</v>
+      </c>
+      <c r="AB36">
+        <v>0.58016601135867196</v>
+      </c>
+      <c r="AC36">
+        <v>0.69768457841852305</v>
+      </c>
+      <c r="AD36">
+        <v>0.78462210572302304</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>1600</v>
+      </c>
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37">
+        <v>922.60276933158605</v>
+      </c>
+      <c r="S37">
+        <v>640.07000000000005</v>
+      </c>
+      <c r="T37">
+        <v>0.17911751856706001</v>
+      </c>
+      <c r="U37">
+        <v>0.26780253385758002</v>
+      </c>
+      <c r="V37">
+        <v>0.34775010921799898</v>
+      </c>
+      <c r="W37">
+        <v>0.41590214067278303</v>
+      </c>
+      <c r="X37">
+        <v>0.354454399786028</v>
+      </c>
+      <c r="Y37">
+        <v>0.23122520042108699</v>
+      </c>
+      <c r="Z37">
+        <v>0.24901703800786401</v>
+      </c>
+      <c r="AA37">
+        <v>0.44823066841415499</v>
+      </c>
+      <c r="AB37">
+        <v>0.59545653123634801</v>
+      </c>
+      <c r="AC37">
+        <v>0.71035386631716901</v>
+      </c>
+      <c r="AD37">
+        <v>0.79467016164263904</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
